--- a/biology/Histoire de la zoologie et de la botanique/François-Mathieu_Verbert/François-Mathieu_Verbert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François-Mathieu_Verbert/François-Mathieu_Verbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Mathieu_Verbert</t>
+          <t>François-Mathieu_Verbert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François-Mathieu Verbert (né en 1769 à Wavre-Sainte-Catherine et mort en 1854[1]) est un pharmacien et botaniste belge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Mathieu Verbert (né en 1769 à Wavre-Sainte-Catherine et mort en 1854) est un pharmacien et botaniste belge.
 Il fut pharmacien en chef et professeur de chimie et de botanique à l'hôpital civil d'Anvers.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Mathieu_Verbert</t>
+          <t>François-Mathieu_Verbert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C. Broeckx, « Notice sur François-Mathieu Verbert, pharmacien en chef et professeur de chimie à l'hôpital civil d'Anvers », Journal de pharmacie d'Anvers, vol. 11,‎ 1855, p. 125-183, portrait Google Books
 (nl) Karel Edward Frison, « De Studie van de Plantkunde te Antwerpen in de 19de Eeuw : Het groot Herbarium Sieber - von Reichenbach - Henri van Heurck », Tijdschrift van de stad Antwerpen, vol. 6de jaarg., no XI,‎ 1960, p. 33-41, ill.</t>
